--- a/Docs/DataSet.xlsx
+++ b/Docs/DataSet.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DEVELOPMENT\GIT\CSharp-GroupProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F56A85B-7CEE-4C59-8C42-0BEC11CF96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05872A02-5838-453B-81C7-919AC5471973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A5F8F9FD-ADEA-4EAD-822D-82419A894C37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{A5F8F9FD-ADEA-4EAD-822D-82419A894C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles" sheetId="1" r:id="rId1"/>
-    <sheet name="Riders" sheetId="2" r:id="rId2"/>
+    <sheet name="Customers" sheetId="3" r:id="rId2"/>
+    <sheet name="Package" sheetId="5" r:id="rId3"/>
+    <sheet name="VehicleHire" sheetId="6" r:id="rId4"/>
+    <sheet name="Employee" sheetId="4" r:id="rId5"/>
+    <sheet name="Riders" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="93">
   <si>
     <t>PN-2565</t>
   </si>
@@ -187,13 +191,142 @@
   </si>
   <si>
     <t>Somewhere</t>
+  </si>
+  <si>
+    <t>Laknidu</t>
+  </si>
+  <si>
+    <t>Dasith</t>
+  </si>
+  <si>
+    <t>Chamara</t>
+  </si>
+  <si>
+    <t>Nisheda</t>
+  </si>
+  <si>
+    <t>Laknidu@gmail.com</t>
+  </si>
+  <si>
+    <t>Dasith@gmai.com</t>
+  </si>
+  <si>
+    <t>Chamara@gmai.com</t>
+  </si>
+  <si>
+    <t>Nisheda@gmail.com</t>
+  </si>
+  <si>
+    <t>')</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Hafsa</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Paul@gmail.com</t>
+  </si>
+  <si>
+    <t>VH#123</t>
+  </si>
+  <si>
+    <t>VH#124</t>
+  </si>
+  <si>
+    <t>VH#125</t>
+  </si>
+  <si>
+    <t>VH#126</t>
+  </si>
+  <si>
+    <t>VH#127</t>
+  </si>
+  <si>
+    <t>VH#128</t>
+  </si>
+  <si>
+    <t>VH#129</t>
+  </si>
+  <si>
+    <t>VH#130</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>Maintainance</t>
+  </si>
+  <si>
+    <t>24Hrs</t>
+  </si>
+  <si>
+    <t>7Dys</t>
+  </si>
+  <si>
+    <t>12Mnths</t>
+  </si>
+  <si>
+    <t>30Dys</t>
+  </si>
+  <si>
+    <t>DailyCar</t>
+  </si>
+  <si>
+    <t>WeeklyCar</t>
+  </si>
+  <si>
+    <t>MonthlyCar</t>
+  </si>
+  <si>
+    <t>AnnualyCar</t>
+  </si>
+  <si>
+    <t>DailyVan</t>
+  </si>
+  <si>
+    <t>WeeklyVan</t>
+  </si>
+  <si>
+    <t>MonthlyVan</t>
+  </si>
+  <si>
+    <t>AnnualyVan</t>
+  </si>
+  <si>
+    <t>DailySUV</t>
+  </si>
+  <si>
+    <t>WeeklySUV</t>
+  </si>
+  <si>
+    <t>MonthlySUV</t>
+  </si>
+  <si>
+    <t>AnnualySUV</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +344,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,12 +377,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C234FD2-8E11-47DF-B4AD-D372EEC72406}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,11 +1351,1341 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E00C34-BBDC-419C-A28D-6D4D90C8EC5E}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2002340000352</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1">
+        <v>773407574</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2002340000378</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1">
+        <v>773407576</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2002340000404</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1">
+        <v>773407578</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2002340000430</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>773407580</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2002340000456</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
+        <v>773407582</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2002340000482</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>773407584</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2002340000508</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>773407586</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2002340000534</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>773407588</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{F8DFA18C-88DE-47B1-871A-FFF6237E1AF3}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{12386DDA-DE54-4EB8-8A65-96A6322B0D74}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{0D37D859-C9C4-4F5A-85A2-784B0DB31BAB}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{2F047DFF-FD54-4BB3-8E43-E4287B65B455}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{0E7F9696-2351-4F29-A250-8025BA6C4D51}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{33A9EEF7-8C88-429A-96BD-69F79661A804}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{85529DD3-0F6B-48EF-9589-6DBB93592141}"/>
+    <hyperlink ref="I1" r:id="rId8" xr:uid="{D3E464E5-4351-4B2F-97EA-41E1BE418E62}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66EEFED-2111-4EE6-998E-FE82F76B3561}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1">
+        <v>560000001</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>560000002</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="8">
+        <v>7000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>560000003</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="8">
+        <v>28000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>560000004</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="8">
+        <v>300000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>560000005</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>560000006</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="8">
+        <v>9000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>560000007</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="8">
+        <v>34000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>560000008</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8">
+        <v>340000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>560000009</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>560000010</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8">
+        <v>12000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>560000011</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="8">
+        <v>40000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>560000012</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8">
+        <v>450000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCC0610-84CD-489A-AE8E-085A0C3C6109}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2002340000352</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1">
+        <v>250465001</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10">
+        <v>45059</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1">
+        <v>5000</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1">
+        <v>5150</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="10">
+        <v>45069</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2002340000378</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
+        <v>250465002</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="10">
+        <v>45060</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>5150</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="10">
+        <v>45070</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2002340000323</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2002340000404</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>250465003</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="10">
+        <v>45061</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>5150</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="10">
+        <v>45071</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2002340000430</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>250465004</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10">
+        <v>45062</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>5150</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="10">
+        <v>45072</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="4">
+        <v>2002340000325</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F00D1F-C37B-4680-B4A8-FE65CCA018AC}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>2002340000850</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5">
+        <v>773408765</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>2002340000855</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="5">
+        <v>773408776</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2002340000860</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5">
+        <v>773408787</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2002340000865</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5">
+        <v>773408798</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2002340000870</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5">
+        <v>773408809</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2002340000875</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5">
+        <v>773408820</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2002340000880</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5">
+        <v>773408831</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2002340000885</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="5">
+        <v>773408842</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C27958-9758-43F9-944A-D9A9C580305F}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
